--- a/Documents/Test Plan.xlsx
+++ b/Documents/Test Plan.xlsx
@@ -4,6 +4,12 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Turn on the board" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Turn off the board" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Turn the led on" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="The led turn off" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Change leds brightness" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Battery level" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>N°</t>
   </si>
@@ -43,7 +49,7 @@
     <t>The board is turning on</t>
   </si>
   <si>
-    <t>Turn the led on with the remote controller</t>
+    <t>Turn the led on</t>
   </si>
   <si>
     <t xml:space="preserve">press the switch on button </t>
@@ -71,6 +77,12 @@
     <t>The luminosity change</t>
   </si>
   <si>
+    <t>Change the time between the blink</t>
+  </si>
+  <si>
+    <t>The time between blink varies</t>
+  </si>
+  <si>
     <t>Turn off the led at a defined time</t>
   </si>
   <si>
@@ -78,12 +90,105 @@
   </si>
   <si>
     <t>check the led is not overheated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn on the board </t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"on"</t>
+  </si>
+  <si>
+    <t>The board turn on</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"Chiffre"</t>
+  </si>
+  <si>
+    <t>The board don't crash</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"Caractère"</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"_"</t>
+  </si>
+  <si>
+    <t>Turn off the board</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"off"</t>
+  </si>
+  <si>
+    <t>The board turn off</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"chiffre"</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"caractère"</t>
+  </si>
+  <si>
+    <t>Turn the led off</t>
+  </si>
+  <si>
+    <t>Change led's brightness</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"100%"</t>
+  </si>
+  <si>
+    <t>the brightness is 100%</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"50%"</t>
+  </si>
+  <si>
+    <t>the brightness is 60%</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"20%"</t>
+  </si>
+  <si>
+    <t>the brightness is 40%</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"0%"</t>
+  </si>
+  <si>
+    <t>the brightness is 0% and the board don't crash</t>
+  </si>
+  <si>
+    <t>the brightness don't change and the board don't crash</t>
+  </si>
+  <si>
+    <t>1.Go to the terminal
+2.Write"xxxx"+"-100"</t>
+  </si>
+  <si>
+    <t>Check Battery level</t>
+  </si>
+  <si>
+    <t>Return battery level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -111,12 +216,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -127,6 +238,30 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -339,156 +474,932 @@
     <col customWidth="1" min="7" max="7" width="19.88"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="18.0" customHeight="1">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="33.0"/>
+    <col customWidth="1" min="3" max="3" width="26.0"/>
+    <col customWidth="1" min="4" max="4" width="20.88"/>
+    <col customWidth="1" min="5" max="5" width="20.13"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
+    <col customWidth="1" min="7" max="7" width="23.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="3" max="3" width="26.0"/>
+    <col customWidth="1" min="4" max="4" width="20.88"/>
+    <col customWidth="1" min="5" max="5" width="17.5"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
+    <col customWidth="1" min="7" max="7" width="23.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="3" max="3" width="26.0"/>
+    <col customWidth="1" min="4" max="4" width="20.88"/>
+    <col customWidth="1" min="5" max="5" width="17.5"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
+    <col customWidth="1" min="7" max="7" width="23.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
+      <c r="C4" s="3">
+        <v>2.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="3" max="3" width="26.0"/>
+    <col customWidth="1" min="4" max="4" width="20.88"/>
+    <col customWidth="1" min="5" max="5" width="17.5"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
+    <col customWidth="1" min="7" max="7" width="23.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="16.88"/>
+    <col customWidth="1" min="4" max="4" width="19.88"/>
+    <col customWidth="1" min="5" max="5" width="40.75"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
+    <col customWidth="1" min="7" max="7" width="23.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.38"/>
+    <col customWidth="1" min="3" max="3" width="16.88"/>
+    <col customWidth="1" min="4" max="4" width="19.88"/>
+    <col customWidth="1" min="5" max="5" width="15.5"/>
+    <col customWidth="1" min="6" max="6" width="7.5"/>
+    <col customWidth="1" min="7" max="7" width="19.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>5.0</v>
+      <c r="A7" s="3">
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3">
         <v>2.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>6.0</v>
+      <c r="A8" s="3">
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3">
         <v>2.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>12.0</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
